--- a/DMS/Templates/Pricelist_Store.xlsx
+++ b/DMS/Templates/Pricelist_Store.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tai lieu du an\Rang Dong\DMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A4C9C3-66DA-4F57-A433-02E5BF94AF62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11430"/>
+    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cuahang_Apdung" sheetId="1" r:id="rId1"/>
-    <sheet name="Cuahang" sheetId="2" r:id="rId2"/>
+    <sheet name="Daily_Apdung" sheetId="1" r:id="rId1"/>
+    <sheet name="Daily" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -28,17 +29,17 @@
     <t>END</t>
   </si>
   <si>
-    <t>Mã cửa hàng</t>
+    <t>Tên đại lý</t>
   </si>
   <si>
-    <t>Tên cửa hàng</t>
+    <t>Mã đại lý</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -392,43 +393,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25">
+    <row r="1" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -439,25 +440,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
